--- a/src/main/resources/123-madao_service/service-article_structure.xlsx
+++ b/src/main/resources/123-madao_service/service-article_structure.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2658" uniqueCount="240">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2703" uniqueCount="243">
   <si>
     <t>类名</t>
   </si>
@@ -64,7 +64,7 @@
     <t>java.lang.String</t>
   </si>
   <si>
-    <t>handle(javax.servlet.http.HttpServletRequest)</t>
+    <t>handle(javax.servlet.http.HttpServletRequest,javax.servlet.http.HttpServletResponse,org.springframework.security.access.AccessDeniedException)</t>
   </si>
   <si>
     <t>wait(java.lang.Long)</t>
@@ -100,7 +100,7 @@
     <t>com.madao.article.handler.CustomAuthenticationEntryPoint</t>
   </si>
   <si>
-    <t>commence(javax.servlet.http.HttpServletRequest)</t>
+    <t>commence(javax.servlet.http.HttpServletRequest,javax.servlet.http.HttpServletResponse,org.springframework.security.core.AuthenticationException)</t>
   </si>
   <si>
     <t>com.madao.article.ArticleApplication</t>
@@ -181,7 +181,7 @@
     <t>com.madao.article.dao.blog.ApiArticleDao</t>
   </si>
   <si>
-    <t>findArticleByTagId(org.springframework.data.domain.Pageable)</t>
+    <t>findArticleByTagId(java.lang.String,org.springframework.data.domain.Pageable)</t>
   </si>
   <si>
     <t>org.springframework.data.domain.Page</t>
@@ -367,7 +367,7 @@
     <t>findTagsById(java.lang.String)</t>
   </si>
   <si>
-    <t>findTagsByCondition(org.springframework.data.domain.Pageable)</t>
+    <t>findTagsByCondition(com.madao.model.dto.article.TagDto,org.springframework.data.domain.Pageable)</t>
   </si>
   <si>
     <t>com.madao.article.service.blog.ApiCommentService</t>
@@ -421,13 +421,13 @@
     <t>$deserializeLambda$(java.lang.invoke.SerializedLambda)</t>
   </si>
   <si>
-    <t>lambda$findArticleByCondition$7e28a13a$1(javax.persistence.criteria.Root)</t>
+    <t>lambda$findArticleByCondition$7e28a13a$1(com.madao.model.dto.article.ArticleDto,java.lang.String,javax.persistence.criteria.Root,javax.persistence.criteria.CriteriaQuery,javax.persistence.criteria.CriteriaBuilder)</t>
   </si>
   <si>
     <t>javax.persistence.criteria.Predicate</t>
   </si>
   <si>
-    <t>findArticleByCondition(org.springframework.data.domain.Pageable)</t>
+    <t>findArticleByCondition(com.madao.model.dto.article.ArticleDto,java.lang.String,org.springframework.data.domain.Pageable)</t>
   </si>
   <si>
     <t>findArticleById(java.lang.String)</t>
@@ -460,10 +460,10 @@
     <t>deleteCategoryByIds(java.util.List)</t>
   </si>
   <si>
-    <t>lambda$findCategoryByCondition$6b6e7a91$1(javax.persistence.criteria.Root)</t>
-  </si>
-  <si>
-    <t>findCategoryByCondition(org.springframework.data.domain.Pageable)</t>
+    <t>lambda$findCategoryByCondition$6b6e7a91$1(com.madao.model.dto.article.CategoryDto,javax.persistence.criteria.Root,javax.persistence.criteria.CriteriaQuery,javax.persistence.criteria.CriteriaBuilder)</t>
+  </si>
+  <si>
+    <t>findCategoryByCondition(com.madao.model.dto.article.CategoryDto,org.springframework.data.domain.Pageable)</t>
   </si>
   <si>
     <t>saveOrUpdate(com.madao.model.dto.article.CategoryDto)</t>
@@ -481,10 +481,10 @@
     <t>findCommentByPrimaryKey(java.lang.String)</t>
   </si>
   <si>
-    <t>lambda$findCommentByCondition$4a2b7b47$1(javax.persistence.criteria.Root)</t>
-  </si>
-  <si>
-    <t>findCommentByCondition(org.springframework.data.domain.Pageable)</t>
+    <t>lambda$findCommentByCondition$4a2b7b47$1(com.madao.model.dto.article.CommentDto,javax.persistence.criteria.Root,javax.persistence.criteria.CriteriaQuery,javax.persistence.criteria.CriteriaBuilder)</t>
+  </si>
+  <si>
+    <t>findCommentByCondition(com.madao.model.dto.article.CommentDto,org.springframework.data.domain.Pageable)</t>
   </si>
   <si>
     <t>saveOrUpdate(com.madao.model.dto.article.CommentDto)</t>
@@ -499,7 +499,7 @@
     <t>saveOrUpdate(com.madao.model.dto.article.TagDto)</t>
   </si>
   <si>
-    <t>lambda$findTagsByCondition$592868dd$1(javax.persistence.criteria.Root)</t>
+    <t>lambda$findTagsByCondition$592868dd$1(com.madao.model.dto.article.TagDto,javax.persistence.criteria.Root,javax.persistence.criteria.CriteriaQuery,javax.persistence.criteria.CriteriaBuilder)</t>
   </si>
   <si>
     <t>com.madao.article.service.backstage.ArticleService</t>
@@ -514,7 +514,7 @@
     <t>lambda$null$2(com.madao.model.dto.user.UserDto,com.madao.model.dto.article.ArticleDto)</t>
   </si>
   <si>
-    <t>lambda$findArticleByCondition$a2658f15$1(javax.persistence.criteria.Root)</t>
+    <t>lambda$findArticleByCondition$a2658f15$1(com.madao.model.dto.article.ArticleDto,javax.persistence.criteria.Root,javax.persistence.criteria.CriteriaQuery,javax.persistence.criteria.CriteriaBuilder)</t>
   </si>
   <si>
     <t>lambda$insertOrUpdateArticle$4(com.madao.model.entity.article.Article,java.lang.String)</t>
@@ -523,7 +523,7 @@
     <t>com.madao.model.entity.article.ArticleTag</t>
   </si>
   <si>
-    <t>lambda$findArticleByCondition$3(org.springframework.data.domain.Page)</t>
+    <t>lambda$findArticleByCondition$3(org.springframework.data.domain.Page,com.madao.model.dto.user.UserDto)</t>
   </si>
   <si>
     <t>lambda$null$1(com.madao.model.dto.user.UserDto,com.madao.model.dto.article.ArticleDto)</t>
@@ -535,6 +535,9 @@
     <t>java.lang.String[]</t>
   </si>
   <si>
+    <t>findArticleByCondition(com.madao.model.dto.article.ArticleDto,org.springframework.data.domain.Pageable)</t>
+  </si>
+  <si>
     <t>字段名</t>
   </si>
   <si>
@@ -634,6 +637,9 @@
     <t>com.madao.article.controller.blog.ApiTagsController</t>
   </si>
   <si>
+    <t>findArticleByCondition(com.madao.model.dto.article.TagDto,org.springframework.data.domain.Pageable)</t>
+  </si>
+  <si>
     <t>com.madao.article.controller.blog.ApiCategoryController</t>
   </si>
   <si>
@@ -643,6 +649,9 @@
     <t>findArticleHot(java.lang.String)</t>
   </si>
   <si>
+    <t>findArticleByCondition(com.madao.model.dto.article.ArticleDto,java.lang.String,java.lang.String,org.springframework.data.domain.Pageable)</t>
+  </si>
+  <si>
     <t>findAdminInfo()</t>
   </si>
   <si>
@@ -697,10 +706,10 @@
     <t>com.madao.article.controller.backstage.ArticleController</t>
   </si>
   <si>
-    <t>updateByPrimaryKeySelective(javax.servlet.http.HttpServletRequest)</t>
-  </si>
-  <si>
-    <t>insertArticle(javax.servlet.http.HttpServletRequest)</t>
+    <t>updateByPrimaryKeySelective(com.madao.model.dto.article.ArticleDto,javax.servlet.http.HttpServletRequest)</t>
+  </si>
+  <si>
+    <t>insertArticle(com.madao.model.dto.article.ArticleDto,javax.servlet.http.HttpServletRequest)</t>
   </si>
   <si>
     <t>updateThumb(org.springframework.web.multipart.MultipartFile)</t>
@@ -7333,7 +7342,7 @@
         <v>160</v>
       </c>
       <c r="B468" t="s">
-        <v>135</v>
+        <v>171</v>
       </c>
       <c r="C468" t="s">
         <v>6</v>
@@ -7416,13 +7425,13 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="C1" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="D1" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
     </row>
     <row r="2">
@@ -7430,13 +7439,13 @@
         <v>25</v>
       </c>
       <c r="B2" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="C2" t="s">
         <v>35</v>
       </c>
       <c r="D2" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
     </row>
     <row r="3">
@@ -7444,7 +7453,7 @@
         <v>45</v>
       </c>
       <c r="B3" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="C3" t="s">
         <v>6</v>
@@ -7458,7 +7467,7 @@
         <v>45</v>
       </c>
       <c r="B4" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="C4" t="s">
         <v>35</v>
@@ -7472,7 +7481,7 @@
         <v>45</v>
       </c>
       <c r="B5" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="C5" t="s">
         <v>35</v>
@@ -7486,7 +7495,7 @@
         <v>45</v>
       </c>
       <c r="B6" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="C6" t="s">
         <v>35</v>
@@ -7500,13 +7509,13 @@
         <v>112</v>
       </c>
       <c r="B7" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="C7" t="s">
         <v>35</v>
       </c>
       <c r="D7" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
     </row>
     <row r="8">
@@ -7514,7 +7523,7 @@
         <v>112</v>
       </c>
       <c r="B8" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="C8" t="s">
         <v>35</v>
@@ -7528,7 +7537,7 @@
         <v>112</v>
       </c>
       <c r="B9" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="C9" t="s">
         <v>35</v>
@@ -7542,13 +7551,13 @@
         <v>112</v>
       </c>
       <c r="B10" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="C10" t="s">
         <v>35</v>
       </c>
       <c r="D10" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
     </row>
     <row r="11">
@@ -7556,7 +7565,7 @@
         <v>112</v>
       </c>
       <c r="B11" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="C11" t="s">
         <v>35</v>
@@ -7570,13 +7579,13 @@
         <v>112</v>
       </c>
       <c r="B12" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="C12" t="s">
         <v>35</v>
       </c>
       <c r="D12" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
     </row>
     <row r="13">
@@ -7584,7 +7593,7 @@
         <v>116</v>
       </c>
       <c r="B13" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="C13" t="s">
         <v>35</v>
@@ -7598,7 +7607,7 @@
         <v>116</v>
       </c>
       <c r="B14" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="C14" t="s">
         <v>35</v>
@@ -7612,7 +7621,7 @@
         <v>116</v>
       </c>
       <c r="B15" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="C15" t="s">
         <v>35</v>
@@ -7626,7 +7635,7 @@
         <v>130</v>
       </c>
       <c r="B16" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="C16" t="s">
         <v>35</v>
@@ -7640,7 +7649,7 @@
         <v>130</v>
       </c>
       <c r="B17" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="C17" t="s">
         <v>35</v>
@@ -7654,7 +7663,7 @@
         <v>130</v>
       </c>
       <c r="B18" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="C18" t="s">
         <v>35</v>
@@ -7668,13 +7677,13 @@
         <v>137</v>
       </c>
       <c r="B19" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="C19" t="s">
         <v>35</v>
       </c>
       <c r="D19" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
     </row>
     <row r="20">
@@ -7682,7 +7691,7 @@
         <v>137</v>
       </c>
       <c r="B20" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="C20" t="s">
         <v>35</v>
@@ -7696,13 +7705,13 @@
         <v>137</v>
       </c>
       <c r="B21" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="C21" t="s">
         <v>35</v>
       </c>
       <c r="D21" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
     </row>
     <row r="22">
@@ -7710,7 +7719,7 @@
         <v>144</v>
       </c>
       <c r="B22" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="C22" t="s">
         <v>35</v>
@@ -7724,7 +7733,7 @@
         <v>144</v>
       </c>
       <c r="B23" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="C23" t="s">
         <v>35</v>
@@ -7738,7 +7747,7 @@
         <v>144</v>
       </c>
       <c r="B24" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="C24" t="s">
         <v>35</v>
@@ -7752,7 +7761,7 @@
         <v>151</v>
       </c>
       <c r="B25" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="C25" t="s">
         <v>35</v>
@@ -7766,7 +7775,7 @@
         <v>151</v>
       </c>
       <c r="B26" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="C26" t="s">
         <v>35</v>
@@ -7780,7 +7789,7 @@
         <v>157</v>
       </c>
       <c r="B27" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="C27" t="s">
         <v>35</v>
@@ -7794,7 +7803,7 @@
         <v>157</v>
       </c>
       <c r="B28" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="C28" t="s">
         <v>35</v>
@@ -7808,7 +7817,7 @@
         <v>157</v>
       </c>
       <c r="B29" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="C29" t="s">
         <v>35</v>
@@ -7822,7 +7831,7 @@
         <v>160</v>
       </c>
       <c r="B30" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="C30" t="s">
         <v>35</v>
@@ -7836,7 +7845,7 @@
         <v>160</v>
       </c>
       <c r="B31" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="C31" t="s">
         <v>35</v>
@@ -7850,13 +7859,13 @@
         <v>160</v>
       </c>
       <c r="B32" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="C32" t="s">
         <v>35</v>
       </c>
       <c r="D32" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
     </row>
     <row r="33">
@@ -7864,7 +7873,7 @@
         <v>160</v>
       </c>
       <c r="B33" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="C33" t="s">
         <v>35</v>
@@ -7878,7 +7887,7 @@
         <v>160</v>
       </c>
       <c r="B34" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="C34" t="s">
         <v>35</v>
@@ -7892,7 +7901,7 @@
         <v>160</v>
       </c>
       <c r="B35" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="C35" t="s">
         <v>35</v>
@@ -7906,13 +7915,13 @@
         <v>160</v>
       </c>
       <c r="B36" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="C36" t="s">
         <v>35</v>
       </c>
       <c r="D36" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
     </row>
   </sheetData>
@@ -7930,13 +7939,13 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="B1" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="C1" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="D1" t="s">
         <v>3</v>
@@ -7944,7 +7953,7 @@
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="B2" t="s">
         <v>138</v>
@@ -7953,26 +7962,26 @@
         <v>6</v>
       </c>
       <c r="D2" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="B3" t="s">
+        <v>202</v>
+      </c>
+      <c r="C3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D3" t="s">
         <v>201</v>
-      </c>
-      <c r="C3" t="s">
-        <v>6</v>
-      </c>
-      <c r="D3" t="s">
-        <v>200</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="B4" t="s">
         <v>141</v>
@@ -7981,12 +7990,12 @@
         <v>6</v>
       </c>
       <c r="D4" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="B5" t="s">
         <v>142</v>
@@ -7995,26 +8004,26 @@
         <v>6</v>
       </c>
       <c r="D5" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="B6" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="C6" t="s">
         <v>6</v>
       </c>
       <c r="D6" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="B7" t="s">
         <v>114</v>
@@ -8023,26 +8032,26 @@
         <v>6</v>
       </c>
       <c r="D7" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="B8" t="s">
-        <v>135</v>
+        <v>205</v>
       </c>
       <c r="C8" t="s">
         <v>6</v>
       </c>
       <c r="D8" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="B9" t="s">
         <v>147</v>
@@ -8051,12 +8060,12 @@
         <v>6</v>
       </c>
       <c r="D9" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="B10" t="s">
         <v>150</v>
@@ -8065,12 +8074,12 @@
         <v>6</v>
       </c>
       <c r="D10" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="B11" t="s">
         <v>138</v>
@@ -8079,12 +8088,12 @@
         <v>6</v>
       </c>
       <c r="D11" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="B12" t="s">
         <v>118</v>
@@ -8093,26 +8102,26 @@
         <v>6</v>
       </c>
       <c r="D12" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="B13" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="C13" t="s">
         <v>6</v>
       </c>
       <c r="D13" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="B14" t="s">
         <v>53</v>
@@ -8121,40 +8130,40 @@
         <v>6</v>
       </c>
       <c r="D14" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="B15" t="s">
-        <v>135</v>
+        <v>209</v>
       </c>
       <c r="C15" t="s">
         <v>6</v>
       </c>
       <c r="D15" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="B16" t="s">
-        <v>207</v>
+        <v>210</v>
       </c>
       <c r="C16" t="s">
         <v>6</v>
       </c>
       <c r="D16" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="B17" t="s">
         <v>129</v>
@@ -8163,40 +8172,40 @@
         <v>6</v>
       </c>
       <c r="D17" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>208</v>
+        <v>211</v>
       </c>
       <c r="B18" t="s">
-        <v>209</v>
+        <v>212</v>
       </c>
       <c r="C18" t="s">
         <v>6</v>
       </c>
       <c r="D18" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>208</v>
+        <v>211</v>
       </c>
       <c r="B19" t="s">
-        <v>210</v>
+        <v>213</v>
       </c>
       <c r="C19" t="s">
         <v>6</v>
       </c>
       <c r="D19" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>208</v>
+        <v>211</v>
       </c>
       <c r="B20" t="s">
         <v>118</v>
@@ -8205,26 +8214,26 @@
         <v>6</v>
       </c>
       <c r="D20" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>208</v>
+        <v>211</v>
       </c>
       <c r="B21" t="s">
-        <v>211</v>
+        <v>214</v>
       </c>
       <c r="C21" t="s">
         <v>6</v>
       </c>
       <c r="D21" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>208</v>
+        <v>211</v>
       </c>
       <c r="B22" t="s">
         <v>129</v>
@@ -8233,12 +8242,12 @@
         <v>6</v>
       </c>
       <c r="D22" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>212</v>
+        <v>215</v>
       </c>
       <c r="B23" t="s">
         <v>138</v>
@@ -8247,82 +8256,82 @@
         <v>6</v>
       </c>
       <c r="D23" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>212</v>
+        <v>215</v>
       </c>
       <c r="B24" t="s">
-        <v>213</v>
+        <v>216</v>
       </c>
       <c r="C24" t="s">
         <v>6</v>
       </c>
       <c r="D24" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>212</v>
+        <v>215</v>
       </c>
       <c r="B25" t="s">
-        <v>214</v>
+        <v>217</v>
       </c>
       <c r="C25" t="s">
         <v>6</v>
       </c>
       <c r="D25" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>212</v>
+        <v>215</v>
       </c>
       <c r="B26" t="s">
-        <v>135</v>
+        <v>205</v>
       </c>
       <c r="C26" t="s">
         <v>6</v>
       </c>
       <c r="D26" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>212</v>
+        <v>215</v>
       </c>
       <c r="B27" t="s">
-        <v>215</v>
+        <v>218</v>
       </c>
       <c r="C27" t="s">
         <v>6</v>
       </c>
       <c r="D27" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>216</v>
+        <v>219</v>
       </c>
       <c r="B28" t="s">
-        <v>217</v>
+        <v>220</v>
       </c>
       <c r="C28" t="s">
         <v>6</v>
       </c>
       <c r="D28" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s">
-        <v>216</v>
+        <v>219</v>
       </c>
       <c r="B29" t="s">
         <v>145</v>
@@ -8331,12 +8340,12 @@
         <v>6</v>
       </c>
       <c r="D29" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s">
-        <v>216</v>
+        <v>219</v>
       </c>
       <c r="B30" t="s">
         <v>147</v>
@@ -8345,40 +8354,40 @@
         <v>6</v>
       </c>
       <c r="D30" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s">
-        <v>216</v>
+        <v>219</v>
       </c>
       <c r="B31" t="s">
-        <v>218</v>
+        <v>221</v>
       </c>
       <c r="C31" t="s">
         <v>6</v>
       </c>
       <c r="D31" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s">
-        <v>216</v>
+        <v>219</v>
       </c>
       <c r="B32" t="s">
-        <v>219</v>
+        <v>222</v>
       </c>
       <c r="C32" t="s">
         <v>6</v>
       </c>
       <c r="D32" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s">
-        <v>220</v>
+        <v>223</v>
       </c>
       <c r="B33" t="s">
         <v>152</v>
@@ -8387,12 +8396,12 @@
         <v>6</v>
       </c>
       <c r="D33" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s">
-        <v>220</v>
+        <v>223</v>
       </c>
       <c r="B34" t="s">
         <v>154</v>
@@ -8401,54 +8410,54 @@
         <v>6</v>
       </c>
       <c r="D34" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="s">
-        <v>220</v>
+        <v>223</v>
       </c>
       <c r="B35" t="s">
-        <v>221</v>
+        <v>224</v>
       </c>
       <c r="C35" t="s">
         <v>6</v>
       </c>
       <c r="D35" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="s">
-        <v>220</v>
+        <v>223</v>
       </c>
       <c r="B36" t="s">
-        <v>222</v>
+        <v>225</v>
       </c>
       <c r="C36" t="s">
         <v>6</v>
       </c>
       <c r="D36" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="s">
-        <v>220</v>
+        <v>223</v>
       </c>
       <c r="B37" t="s">
-        <v>223</v>
+        <v>226</v>
       </c>
       <c r="C37" t="s">
         <v>6</v>
       </c>
       <c r="D37" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="s">
-        <v>224</v>
+        <v>227</v>
       </c>
       <c r="B38" t="s">
         <v>161</v>
@@ -8457,68 +8466,68 @@
         <v>6</v>
       </c>
       <c r="D38" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="s">
-        <v>224</v>
+        <v>227</v>
       </c>
       <c r="B39" t="s">
-        <v>225</v>
+        <v>228</v>
       </c>
       <c r="C39" t="s">
         <v>6</v>
       </c>
       <c r="D39" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="s">
-        <v>224</v>
+        <v>227</v>
       </c>
       <c r="B40" t="s">
-        <v>226</v>
+        <v>229</v>
       </c>
       <c r="C40" t="s">
         <v>6</v>
       </c>
       <c r="D40" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="s">
-        <v>224</v>
+        <v>227</v>
       </c>
       <c r="B41" t="s">
-        <v>227</v>
+        <v>230</v>
       </c>
       <c r="C41" t="s">
         <v>6</v>
       </c>
       <c r="D41" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="s">
-        <v>224</v>
+        <v>227</v>
       </c>
       <c r="B42" t="s">
-        <v>135</v>
+        <v>171</v>
       </c>
       <c r="C42" t="s">
         <v>6</v>
       </c>
       <c r="D42" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="s">
-        <v>224</v>
+        <v>227</v>
       </c>
       <c r="B43" t="s">
         <v>79</v>
@@ -8527,12 +8536,12 @@
         <v>6</v>
       </c>
       <c r="D43" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="s">
-        <v>224</v>
+        <v>227</v>
       </c>
       <c r="B44" t="s">
         <v>136</v>
@@ -8541,7 +8550,7 @@
         <v>6</v>
       </c>
       <c r="D44" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
     </row>
   </sheetData>
@@ -8551,7 +8560,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:F51"/>
+  <dimension ref="A1:F52"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -8559,19 +8568,19 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>228</v>
+        <v>231</v>
       </c>
       <c r="B1" t="s">
-        <v>229</v>
+        <v>232</v>
       </c>
       <c r="C1" t="s">
-        <v>230</v>
+        <v>233</v>
       </c>
       <c r="D1" t="s">
-        <v>231</v>
+        <v>234</v>
       </c>
       <c r="E1" t="s">
-        <v>232</v>
+        <v>235</v>
       </c>
     </row>
     <row r="2">
@@ -8588,7 +8597,7 @@
         <v>39</v>
       </c>
       <c r="E2" t="s">
-        <v>233</v>
+        <v>236</v>
       </c>
     </row>
     <row r="3">
@@ -8605,7 +8614,7 @@
         <v>37</v>
       </c>
       <c r="E3" t="s">
-        <v>233</v>
+        <v>236</v>
       </c>
     </row>
     <row r="4">
@@ -8622,7 +8631,7 @@
         <v>34</v>
       </c>
       <c r="E4" t="s">
-        <v>233</v>
+        <v>236</v>
       </c>
     </row>
     <row r="5">
@@ -8639,7 +8648,7 @@
         <v>43</v>
       </c>
       <c r="E5" t="s">
-        <v>233</v>
+        <v>236</v>
       </c>
     </row>
     <row r="6">
@@ -8656,7 +8665,7 @@
         <v>50</v>
       </c>
       <c r="E6" t="s">
-        <v>233</v>
+        <v>236</v>
       </c>
     </row>
     <row r="7">
@@ -8673,7 +8682,7 @@
         <v>46</v>
       </c>
       <c r="E7" t="s">
-        <v>233</v>
+        <v>236</v>
       </c>
     </row>
     <row r="8">
@@ -8690,7 +8699,7 @@
         <v>55</v>
       </c>
       <c r="E8" t="s">
-        <v>233</v>
+        <v>236</v>
       </c>
     </row>
     <row r="9">
@@ -8707,7 +8716,7 @@
         <v>89</v>
       </c>
       <c r="E9" t="s">
-        <v>233</v>
+        <v>236</v>
       </c>
     </row>
     <row r="10">
@@ -8724,7 +8733,7 @@
         <v>87</v>
       </c>
       <c r="E10" t="s">
-        <v>233</v>
+        <v>236</v>
       </c>
     </row>
     <row r="11">
@@ -8741,7 +8750,7 @@
         <v>87</v>
       </c>
       <c r="E11" t="s">
-        <v>233</v>
+        <v>236</v>
       </c>
     </row>
     <row r="12">
@@ -8758,7 +8767,7 @@
         <v>89</v>
       </c>
       <c r="E12" t="s">
-        <v>233</v>
+        <v>236</v>
       </c>
     </row>
     <row r="13">
@@ -8775,7 +8784,7 @@
         <v>95</v>
       </c>
       <c r="E13" t="s">
-        <v>233</v>
+        <v>236</v>
       </c>
     </row>
     <row r="14">
@@ -8792,7 +8801,7 @@
         <v>93</v>
       </c>
       <c r="E14" t="s">
-        <v>233</v>
+        <v>236</v>
       </c>
     </row>
     <row r="15">
@@ -8809,7 +8818,7 @@
         <v>93</v>
       </c>
       <c r="E15" t="s">
-        <v>233</v>
+        <v>236</v>
       </c>
     </row>
     <row r="16">
@@ -8826,7 +8835,7 @@
         <v>95</v>
       </c>
       <c r="E16" t="s">
-        <v>233</v>
+        <v>236</v>
       </c>
     </row>
     <row r="17">
@@ -8843,7 +8852,7 @@
         <v>100</v>
       </c>
       <c r="E17" t="s">
-        <v>233</v>
+        <v>236</v>
       </c>
     </row>
     <row r="18">
@@ -8860,7 +8869,7 @@
         <v>98</v>
       </c>
       <c r="E18" t="s">
-        <v>233</v>
+        <v>236</v>
       </c>
     </row>
     <row r="19">
@@ -8877,7 +8886,7 @@
         <v>98</v>
       </c>
       <c r="E19" t="s">
-        <v>233</v>
+        <v>236</v>
       </c>
     </row>
     <row r="20">
@@ -8894,7 +8903,7 @@
         <v>100</v>
       </c>
       <c r="E20" t="s">
-        <v>233</v>
+        <v>236</v>
       </c>
     </row>
     <row r="21">
@@ -8911,7 +8920,7 @@
         <v>106</v>
       </c>
       <c r="E21" t="s">
-        <v>233</v>
+        <v>236</v>
       </c>
     </row>
     <row r="22">
@@ -8928,7 +8937,7 @@
         <v>104</v>
       </c>
       <c r="E22" t="s">
-        <v>233</v>
+        <v>236</v>
       </c>
     </row>
     <row r="23">
@@ -8945,7 +8954,7 @@
         <v>104</v>
       </c>
       <c r="E23" t="s">
-        <v>233</v>
+        <v>236</v>
       </c>
     </row>
     <row r="24">
@@ -8962,7 +8971,7 @@
         <v>106</v>
       </c>
       <c r="E24" t="s">
-        <v>233</v>
+        <v>236</v>
       </c>
     </row>
     <row r="25">
@@ -8979,7 +8988,7 @@
         <v>73</v>
       </c>
       <c r="E25" t="s">
-        <v>233</v>
+        <v>236</v>
       </c>
     </row>
     <row r="26">
@@ -8996,7 +9005,7 @@
         <v>64</v>
       </c>
       <c r="E26" t="s">
-        <v>233</v>
+        <v>236</v>
       </c>
     </row>
     <row r="27">
@@ -9013,7 +9022,7 @@
         <v>82</v>
       </c>
       <c r="E27" t="s">
-        <v>233</v>
+        <v>236</v>
       </c>
     </row>
     <row r="28">
@@ -9030,7 +9039,7 @@
         <v>60</v>
       </c>
       <c r="E28" t="s">
-        <v>233</v>
+        <v>236</v>
       </c>
     </row>
     <row r="29">
@@ -9047,7 +9056,7 @@
         <v>65</v>
       </c>
       <c r="E29" t="s">
-        <v>233</v>
+        <v>236</v>
       </c>
     </row>
     <row r="30">
@@ -9064,7 +9073,7 @@
         <v>61</v>
       </c>
       <c r="E30" t="s">
-        <v>233</v>
+        <v>236</v>
       </c>
     </row>
     <row r="31">
@@ -9081,7 +9090,7 @@
         <v>60</v>
       </c>
       <c r="E31" t="s">
-        <v>233</v>
+        <v>236</v>
       </c>
     </row>
     <row r="32">
@@ -9089,16 +9098,16 @@
         <v>130</v>
       </c>
       <c r="B32" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C32" t="s">
         <v>52</v>
       </c>
       <c r="D32" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="E32" t="s">
-        <v>233</v>
+        <v>236</v>
       </c>
     </row>
     <row r="33">
@@ -9106,16 +9115,16 @@
         <v>130</v>
       </c>
       <c r="B33" t="s">
-        <v>135</v>
+        <v>55</v>
       </c>
       <c r="C33" t="s">
-        <v>63</v>
+        <v>52</v>
       </c>
       <c r="D33" t="s">
-        <v>66</v>
+        <v>58</v>
       </c>
       <c r="E33" t="s">
-        <v>233</v>
+        <v>236</v>
       </c>
     </row>
     <row r="34">
@@ -9123,16 +9132,16 @@
         <v>130</v>
       </c>
       <c r="B34" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C34" t="s">
-        <v>52</v>
+        <v>63</v>
       </c>
       <c r="D34" t="s">
-        <v>57</v>
+        <v>66</v>
       </c>
       <c r="E34" t="s">
-        <v>233</v>
+        <v>236</v>
       </c>
     </row>
     <row r="35">
@@ -9143,13 +9152,13 @@
         <v>136</v>
       </c>
       <c r="C35" t="s">
-        <v>108</v>
+        <v>52</v>
       </c>
       <c r="D35" t="s">
-        <v>82</v>
+        <v>57</v>
       </c>
       <c r="E35" t="s">
-        <v>233</v>
+        <v>236</v>
       </c>
     </row>
     <row r="36">
@@ -9157,33 +9166,33 @@
         <v>130</v>
       </c>
       <c r="B36" t="s">
-        <v>129</v>
+        <v>136</v>
       </c>
       <c r="C36" t="s">
-        <v>52</v>
+        <v>108</v>
       </c>
       <c r="D36" t="s">
-        <v>61</v>
+        <v>82</v>
       </c>
       <c r="E36" t="s">
-        <v>233</v>
+        <v>236</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="s">
-        <v>144</v>
+        <v>130</v>
       </c>
       <c r="B37" t="s">
-        <v>145</v>
+        <v>129</v>
       </c>
       <c r="C37" t="s">
-        <v>76</v>
+        <v>52</v>
       </c>
       <c r="D37" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="E37" t="s">
-        <v>233</v>
+        <v>236</v>
       </c>
     </row>
     <row r="38">
@@ -9191,16 +9200,16 @@
         <v>144</v>
       </c>
       <c r="B38" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="C38" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D38" t="s">
-        <v>78</v>
+        <v>67</v>
       </c>
       <c r="E38" t="s">
-        <v>233</v>
+        <v>236</v>
       </c>
     </row>
     <row r="39">
@@ -9208,33 +9217,33 @@
         <v>144</v>
       </c>
       <c r="B39" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C39" t="s">
-        <v>102</v>
+        <v>77</v>
       </c>
       <c r="D39" t="s">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="E39" t="s">
-        <v>233</v>
+        <v>236</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="s">
-        <v>151</v>
+        <v>144</v>
       </c>
       <c r="B40" t="s">
-        <v>155</v>
+        <v>148</v>
       </c>
       <c r="C40" t="s">
-        <v>80</v>
+        <v>102</v>
       </c>
       <c r="D40" t="s">
         <v>84</v>
       </c>
       <c r="E40" t="s">
-        <v>233</v>
+        <v>236</v>
       </c>
     </row>
     <row r="41">
@@ -9242,33 +9251,33 @@
         <v>151</v>
       </c>
       <c r="B41" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C41" t="s">
-        <v>63</v>
+        <v>80</v>
       </c>
       <c r="D41" t="s">
-        <v>67</v>
+        <v>84</v>
       </c>
       <c r="E41" t="s">
-        <v>233</v>
+        <v>236</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="s">
-        <v>157</v>
+        <v>151</v>
       </c>
       <c r="B42" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="C42" t="s">
-        <v>91</v>
+        <v>63</v>
       </c>
       <c r="D42" t="s">
-        <v>84</v>
+        <v>67</v>
       </c>
       <c r="E42" t="s">
-        <v>233</v>
+        <v>236</v>
       </c>
     </row>
     <row r="43">
@@ -9276,16 +9285,16 @@
         <v>157</v>
       </c>
       <c r="B43" t="s">
-        <v>115</v>
+        <v>158</v>
       </c>
       <c r="C43" t="s">
-        <v>71</v>
+        <v>91</v>
       </c>
       <c r="D43" t="s">
-        <v>73</v>
+        <v>84</v>
       </c>
       <c r="E43" t="s">
-        <v>233</v>
+        <v>236</v>
       </c>
     </row>
     <row r="44">
@@ -9293,16 +9302,16 @@
         <v>157</v>
       </c>
       <c r="B44" t="s">
-        <v>67</v>
+        <v>115</v>
       </c>
       <c r="C44" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="D44" t="s">
-        <v>67</v>
+        <v>73</v>
       </c>
       <c r="E44" t="s">
-        <v>233</v>
+        <v>236</v>
       </c>
     </row>
     <row r="45">
@@ -9313,30 +9322,30 @@
         <v>67</v>
       </c>
       <c r="C45" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="D45" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="E45" t="s">
-        <v>233</v>
+        <v>236</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="B46" t="s">
-        <v>161</v>
+        <v>67</v>
       </c>
       <c r="C46" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="D46" t="s">
-        <v>67</v>
+        <v>72</v>
       </c>
       <c r="E46" t="s">
-        <v>233</v>
+        <v>236</v>
       </c>
     </row>
     <row r="47">
@@ -9347,13 +9356,13 @@
         <v>161</v>
       </c>
       <c r="C47" t="s">
-        <v>71</v>
+        <v>77</v>
       </c>
       <c r="D47" t="s">
-        <v>74</v>
+        <v>67</v>
       </c>
       <c r="E47" t="s">
-        <v>233</v>
+        <v>236</v>
       </c>
     </row>
     <row r="48">
@@ -9361,7 +9370,7 @@
         <v>160</v>
       </c>
       <c r="B48" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C48" t="s">
         <v>71</v>
@@ -9370,7 +9379,7 @@
         <v>74</v>
       </c>
       <c r="E48" t="s">
-        <v>233</v>
+        <v>236</v>
       </c>
     </row>
     <row r="49">
@@ -9381,13 +9390,13 @@
         <v>162</v>
       </c>
       <c r="C49" t="s">
-        <v>108</v>
+        <v>71</v>
       </c>
       <c r="D49" t="s">
-        <v>84</v>
+        <v>74</v>
       </c>
       <c r="E49" t="s">
-        <v>233</v>
+        <v>236</v>
       </c>
     </row>
     <row r="50">
@@ -9395,16 +9404,16 @@
         <v>160</v>
       </c>
       <c r="B50" t="s">
-        <v>79</v>
+        <v>162</v>
       </c>
       <c r="C50" t="s">
-        <v>77</v>
+        <v>108</v>
       </c>
       <c r="D50" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="E50" t="s">
-        <v>233</v>
+        <v>236</v>
       </c>
     </row>
     <row r="51">
@@ -9412,16 +9421,33 @@
         <v>160</v>
       </c>
       <c r="B51" t="s">
+        <v>79</v>
+      </c>
+      <c r="C51" t="s">
+        <v>77</v>
+      </c>
+      <c r="D51" t="s">
+        <v>79</v>
+      </c>
+      <c r="E51" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="s">
+        <v>160</v>
+      </c>
+      <c r="B52" t="s">
         <v>136</v>
       </c>
-      <c r="C51" t="s">
+      <c r="C52" t="s">
         <v>68</v>
       </c>
-      <c r="D51" t="s">
+      <c r="D52" t="s">
         <v>69</v>
       </c>
-      <c r="E51" t="s">
-        <v>233</v>
+      <c r="E52" t="s">
+        <v>236</v>
       </c>
     </row>
   </sheetData>
@@ -9431,7 +9457,7 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:F35"/>
+  <dimension ref="A1:F43"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -9439,24 +9465,24 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
+        <v>237</v>
+      </c>
+      <c r="B1" t="s">
+        <v>238</v>
+      </c>
+      <c r="C1" t="s">
+        <v>233</v>
+      </c>
+      <c r="D1" t="s">
         <v>234</v>
       </c>
-      <c r="B1" t="s">
+      <c r="E1" t="s">
         <v>235</v>
-      </c>
-      <c r="C1" t="s">
-        <v>230</v>
-      </c>
-      <c r="D1" t="s">
-        <v>231</v>
-      </c>
-      <c r="E1" t="s">
-        <v>232</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="B2" t="s">
         <v>138</v>
@@ -9468,15 +9494,15 @@
         <v>138</v>
       </c>
       <c r="E2" t="s">
-        <v>233</v>
+        <v>236</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="B3" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="C3" t="s">
         <v>137</v>
@@ -9485,12 +9511,12 @@
         <v>140</v>
       </c>
       <c r="E3" t="s">
-        <v>233</v>
+        <v>236</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="B4" t="s">
         <v>141</v>
@@ -9502,12 +9528,12 @@
         <v>141</v>
       </c>
       <c r="E4" t="s">
-        <v>233</v>
+        <v>236</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="B5" t="s">
         <v>142</v>
@@ -9519,15 +9545,15 @@
         <v>142</v>
       </c>
       <c r="E5" t="s">
-        <v>233</v>
+        <v>236</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="B6" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="C6" t="s">
         <v>137</v>
@@ -9536,12 +9562,12 @@
         <v>143</v>
       </c>
       <c r="E6" t="s">
-        <v>233</v>
+        <v>236</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="B7" t="s">
         <v>114</v>
@@ -9553,7 +9579,7 @@
         <v>114</v>
       </c>
       <c r="E7" t="s">
-        <v>233</v>
+        <v>236</v>
       </c>
     </row>
     <row r="8">
@@ -9561,475 +9587,611 @@
         <v>204</v>
       </c>
       <c r="B8" t="s">
-        <v>150</v>
+        <v>205</v>
       </c>
       <c r="C8" t="s">
-        <v>144</v>
+        <v>112</v>
       </c>
       <c r="D8" t="s">
-        <v>150</v>
+        <v>115</v>
       </c>
       <c r="E8" t="s">
-        <v>233</v>
+        <v>236</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="B9" t="s">
-        <v>138</v>
+        <v>147</v>
       </c>
       <c r="C9" t="s">
-        <v>130</v>
+        <v>144</v>
       </c>
       <c r="D9" t="s">
-        <v>136</v>
+        <v>147</v>
       </c>
       <c r="E9" t="s">
-        <v>233</v>
+        <v>236</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="B10" t="s">
-        <v>118</v>
+        <v>150</v>
       </c>
       <c r="C10" t="s">
-        <v>130</v>
+        <v>144</v>
       </c>
       <c r="D10" t="s">
-        <v>118</v>
+        <v>150</v>
       </c>
       <c r="E10" t="s">
-        <v>233</v>
+        <v>236</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="B11" t="s">
-        <v>207</v>
+        <v>138</v>
       </c>
       <c r="C11" t="s">
         <v>130</v>
       </c>
       <c r="D11" t="s">
-        <v>55</v>
+        <v>136</v>
       </c>
       <c r="E11" t="s">
-        <v>233</v>
+        <v>236</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="B12" t="s">
-        <v>129</v>
+        <v>118</v>
       </c>
       <c r="C12" t="s">
         <v>130</v>
       </c>
       <c r="D12" t="s">
-        <v>129</v>
+        <v>118</v>
       </c>
       <c r="E12" t="s">
-        <v>233</v>
+        <v>236</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="B13" t="s">
-        <v>209</v>
+        <v>53</v>
       </c>
       <c r="C13" t="s">
-        <v>116</v>
+        <v>130</v>
       </c>
       <c r="D13" t="s">
-        <v>117</v>
+        <v>53</v>
       </c>
       <c r="E13" t="s">
-        <v>233</v>
+        <v>236</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="B14" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="C14" t="s">
-        <v>116</v>
+        <v>130</v>
       </c>
       <c r="D14" t="s">
-        <v>123</v>
+        <v>135</v>
       </c>
       <c r="E14" t="s">
-        <v>233</v>
+        <v>236</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="B15" t="s">
-        <v>118</v>
+        <v>210</v>
       </c>
       <c r="C15" t="s">
-        <v>116</v>
+        <v>130</v>
       </c>
       <c r="D15" t="s">
-        <v>118</v>
+        <v>55</v>
       </c>
       <c r="E15" t="s">
-        <v>233</v>
+        <v>236</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="B16" t="s">
-        <v>211</v>
+        <v>129</v>
       </c>
       <c r="C16" t="s">
-        <v>80</v>
+        <v>130</v>
       </c>
       <c r="D16" t="s">
-        <v>84</v>
+        <v>129</v>
       </c>
       <c r="E16" t="s">
-        <v>233</v>
+        <v>236</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>208</v>
+        <v>211</v>
       </c>
       <c r="B17" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="C17" t="s">
         <v>116</v>
       </c>
       <c r="D17" t="s">
-        <v>127</v>
+        <v>117</v>
       </c>
       <c r="E17" t="s">
-        <v>233</v>
+        <v>236</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>208</v>
+        <v>211</v>
       </c>
       <c r="B18" t="s">
-        <v>129</v>
+        <v>213</v>
       </c>
       <c r="C18" t="s">
         <v>116</v>
       </c>
       <c r="D18" t="s">
-        <v>129</v>
+        <v>123</v>
       </c>
       <c r="E18" t="s">
-        <v>233</v>
+        <v>236</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="B19" t="s">
-        <v>138</v>
+        <v>118</v>
       </c>
       <c r="C19" t="s">
-        <v>157</v>
+        <v>116</v>
       </c>
       <c r="D19" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="E19" t="s">
-        <v>233</v>
+        <v>236</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="B20" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="C20" t="s">
-        <v>157</v>
+        <v>80</v>
       </c>
       <c r="D20" t="s">
-        <v>158</v>
+        <v>84</v>
       </c>
       <c r="E20" t="s">
-        <v>233</v>
+        <v>236</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="B21" t="s">
         <v>214</v>
       </c>
       <c r="C21" t="s">
-        <v>157</v>
+        <v>116</v>
       </c>
       <c r="D21" t="s">
-        <v>158</v>
+        <v>127</v>
       </c>
       <c r="E21" t="s">
-        <v>233</v>
+        <v>236</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="B22" t="s">
-        <v>215</v>
+        <v>129</v>
       </c>
       <c r="C22" t="s">
-        <v>157</v>
+        <v>116</v>
       </c>
       <c r="D22" t="s">
-        <v>67</v>
+        <v>129</v>
       </c>
       <c r="E22" t="s">
-        <v>233</v>
+        <v>236</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="B23" t="s">
-        <v>217</v>
+        <v>138</v>
       </c>
       <c r="C23" t="s">
-        <v>144</v>
+        <v>157</v>
       </c>
       <c r="D23" t="s">
-        <v>148</v>
+        <v>114</v>
       </c>
       <c r="E23" t="s">
-        <v>233</v>
+        <v>236</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
+        <v>215</v>
+      </c>
+      <c r="B24" t="s">
         <v>216</v>
       </c>
-      <c r="B24" t="s">
-        <v>145</v>
-      </c>
       <c r="C24" t="s">
-        <v>144</v>
+        <v>157</v>
       </c>
       <c r="D24" t="s">
-        <v>145</v>
+        <v>158</v>
       </c>
       <c r="E24" t="s">
-        <v>233</v>
+        <v>236</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="B25" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="C25" t="s">
-        <v>144</v>
+        <v>157</v>
       </c>
       <c r="D25" t="s">
-        <v>148</v>
+        <v>158</v>
       </c>
       <c r="E25" t="s">
-        <v>233</v>
+        <v>236</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="B26" t="s">
-        <v>219</v>
+        <v>205</v>
       </c>
       <c r="C26" t="s">
-        <v>144</v>
+        <v>157</v>
       </c>
       <c r="D26" t="s">
-        <v>150</v>
+        <v>115</v>
       </c>
       <c r="E26" t="s">
-        <v>233</v>
+        <v>236</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>220</v>
+        <v>215</v>
       </c>
       <c r="B27" t="s">
-        <v>152</v>
+        <v>218</v>
       </c>
       <c r="C27" t="s">
-        <v>151</v>
+        <v>157</v>
       </c>
       <c r="D27" t="s">
-        <v>152</v>
+        <v>67</v>
       </c>
       <c r="E27" t="s">
-        <v>233</v>
+        <v>236</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s">
+        <v>219</v>
+      </c>
+      <c r="B28" t="s">
         <v>220</v>
       </c>
-      <c r="B28" t="s">
-        <v>221</v>
-      </c>
       <c r="C28" t="s">
-        <v>151</v>
+        <v>144</v>
       </c>
       <c r="D28" t="s">
-        <v>155</v>
+        <v>148</v>
       </c>
       <c r="E28" t="s">
-        <v>233</v>
+        <v>236</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="B29" t="s">
-        <v>222</v>
+        <v>145</v>
       </c>
       <c r="C29" t="s">
-        <v>151</v>
+        <v>144</v>
       </c>
       <c r="D29" t="s">
-        <v>155</v>
+        <v>145</v>
       </c>
       <c r="E29" t="s">
-        <v>233</v>
+        <v>236</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="B30" t="s">
-        <v>223</v>
+        <v>147</v>
       </c>
       <c r="C30" t="s">
-        <v>151</v>
+        <v>144</v>
       </c>
       <c r="D30" t="s">
-        <v>156</v>
+        <v>147</v>
       </c>
       <c r="E30" t="s">
-        <v>233</v>
+        <v>236</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s">
-        <v>224</v>
+        <v>219</v>
       </c>
       <c r="B31" t="s">
-        <v>161</v>
+        <v>221</v>
       </c>
       <c r="C31" t="s">
-        <v>160</v>
+        <v>144</v>
       </c>
       <c r="D31" t="s">
-        <v>161</v>
+        <v>148</v>
       </c>
       <c r="E31" t="s">
-        <v>233</v>
+        <v>236</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s">
-        <v>224</v>
+        <v>219</v>
       </c>
       <c r="B32" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="C32" t="s">
-        <v>160</v>
+        <v>144</v>
       </c>
       <c r="D32" t="s">
-        <v>162</v>
+        <v>150</v>
       </c>
       <c r="E32" t="s">
-        <v>233</v>
+        <v>236</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="B33" t="s">
-        <v>226</v>
+        <v>152</v>
       </c>
       <c r="C33" t="s">
-        <v>160</v>
+        <v>151</v>
       </c>
       <c r="D33" t="s">
-        <v>162</v>
+        <v>152</v>
       </c>
       <c r="E33" t="s">
-        <v>233</v>
+        <v>236</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="B34" t="s">
-        <v>79</v>
+        <v>154</v>
       </c>
       <c r="C34" t="s">
-        <v>160</v>
+        <v>151</v>
       </c>
       <c r="D34" t="s">
-        <v>79</v>
+        <v>154</v>
       </c>
       <c r="E34" t="s">
-        <v>233</v>
+        <v>236</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="s">
+        <v>223</v>
+      </c>
+      <c r="B35" t="s">
         <v>224</v>
       </c>
-      <c r="B35" t="s">
+      <c r="C35" t="s">
+        <v>151</v>
+      </c>
+      <c r="D35" t="s">
+        <v>155</v>
+      </c>
+      <c r="E35" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="s">
+        <v>223</v>
+      </c>
+      <c r="B36" t="s">
+        <v>225</v>
+      </c>
+      <c r="C36" t="s">
+        <v>151</v>
+      </c>
+      <c r="D36" t="s">
+        <v>155</v>
+      </c>
+      <c r="E36" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="s">
+        <v>223</v>
+      </c>
+      <c r="B37" t="s">
+        <v>226</v>
+      </c>
+      <c r="C37" t="s">
+        <v>151</v>
+      </c>
+      <c r="D37" t="s">
+        <v>156</v>
+      </c>
+      <c r="E37" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="s">
+        <v>227</v>
+      </c>
+      <c r="B38" t="s">
+        <v>161</v>
+      </c>
+      <c r="C38" t="s">
+        <v>160</v>
+      </c>
+      <c r="D38" t="s">
+        <v>161</v>
+      </c>
+      <c r="E38" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="s">
+        <v>227</v>
+      </c>
+      <c r="B39" t="s">
+        <v>228</v>
+      </c>
+      <c r="C39" t="s">
+        <v>160</v>
+      </c>
+      <c r="D39" t="s">
+        <v>162</v>
+      </c>
+      <c r="E39" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="s">
+        <v>227</v>
+      </c>
+      <c r="B40" t="s">
+        <v>229</v>
+      </c>
+      <c r="C40" t="s">
+        <v>160</v>
+      </c>
+      <c r="D40" t="s">
+        <v>162</v>
+      </c>
+      <c r="E40" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="s">
+        <v>227</v>
+      </c>
+      <c r="B41" t="s">
+        <v>171</v>
+      </c>
+      <c r="C41" t="s">
+        <v>160</v>
+      </c>
+      <c r="D41" t="s">
+        <v>171</v>
+      </c>
+      <c r="E41" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="s">
+        <v>227</v>
+      </c>
+      <c r="B42" t="s">
+        <v>79</v>
+      </c>
+      <c r="C42" t="s">
+        <v>160</v>
+      </c>
+      <c r="D42" t="s">
+        <v>79</v>
+      </c>
+      <c r="E42" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="s">
+        <v>227</v>
+      </c>
+      <c r="B43" t="s">
         <v>136</v>
       </c>
-      <c r="C35" t="s">
+      <c r="C43" t="s">
         <v>160</v>
       </c>
-      <c r="D35" t="s">
+      <c r="D43" t="s">
         <v>136</v>
       </c>
-      <c r="E35" t="s">
-        <v>233</v>
+      <c r="E43" t="s">
+        <v>236</v>
       </c>
     </row>
   </sheetData>
@@ -10047,19 +10209,19 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>228</v>
+        <v>231</v>
       </c>
       <c r="B1" t="s">
-        <v>229</v>
+        <v>232</v>
       </c>
       <c r="C1" t="s">
-        <v>236</v>
+        <v>239</v>
       </c>
       <c r="D1" t="s">
-        <v>237</v>
+        <v>240</v>
       </c>
       <c r="E1" t="s">
-        <v>232</v>
+        <v>235</v>
       </c>
     </row>
   </sheetData>
@@ -10077,19 +10239,19 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>234</v>
+        <v>237</v>
       </c>
       <c r="B1" t="s">
+        <v>238</v>
+      </c>
+      <c r="C1" t="s">
+        <v>241</v>
+      </c>
+      <c r="D1" t="s">
+        <v>240</v>
+      </c>
+      <c r="E1" t="s">
         <v>235</v>
-      </c>
-      <c r="C1" t="s">
-        <v>238</v>
-      </c>
-      <c r="D1" t="s">
-        <v>237</v>
-      </c>
-      <c r="E1" t="s">
-        <v>232</v>
       </c>
     </row>
   </sheetData>
@@ -10107,19 +10269,19 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>228</v>
+        <v>231</v>
       </c>
       <c r="B1" t="s">
-        <v>229</v>
+        <v>232</v>
       </c>
       <c r="C1" t="s">
-        <v>230</v>
+        <v>233</v>
       </c>
       <c r="D1" t="s">
-        <v>239</v>
+        <v>242</v>
       </c>
       <c r="E1" t="s">
-        <v>232</v>
+        <v>235</v>
       </c>
     </row>
   </sheetData>
@@ -10137,19 +10299,19 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>234</v>
+        <v>237</v>
       </c>
       <c r="B1" t="s">
+        <v>238</v>
+      </c>
+      <c r="C1" t="s">
+        <v>233</v>
+      </c>
+      <c r="D1" t="s">
+        <v>242</v>
+      </c>
+      <c r="E1" t="s">
         <v>235</v>
-      </c>
-      <c r="C1" t="s">
-        <v>230</v>
-      </c>
-      <c r="D1" t="s">
-        <v>239</v>
-      </c>
-      <c r="E1" t="s">
-        <v>232</v>
       </c>
     </row>
   </sheetData>
